--- a/Results - logit.xlsx
+++ b/Results - logit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD187F28-194B-4CA5-9A2A-D86AEE95D448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E2A301-52E0-4E90-87B7-F817A5341C92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7155" yWindow="2625" windowWidth="17085" windowHeight="14535" activeTab="1" xr2:uid="{F802051B-2499-492A-8A25-373610B69535}"/>
+    <workbookView xWindow="18555" yWindow="4905" windowWidth="17085" windowHeight="14535" activeTab="1" xr2:uid="{F802051B-2499-492A-8A25-373610B69535}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="FOC Check" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -756,30 +755,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,6 +790,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1235,43 +1234,43 @@
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="8"/>
-      <c r="D1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="H1" s="43" t="s">
         <v>76</v>
       </c>
       <c r="I1" s="43"/>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="66" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
       <c r="Z1" s="16"/>
-      <c r="AA1" s="67" t="s">
+      <c r="AA1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
     </row>
     <row r="2" spans="1:30" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
@@ -10114,10 +10113,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70ABDB4-6AEF-4184-89E6-855BD3C5332D}">
   <dimension ref="A1:AD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="AE95" sqref="AE95"/>
+      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10138,43 +10137,43 @@
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="8"/>
-      <c r="D1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="H1" s="43" t="s">
         <v>76</v>
       </c>
       <c r="I1" s="43"/>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="66" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
       <c r="Z1" s="16"/>
-      <c r="AA1" s="67" t="s">
+      <c r="AA1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
     </row>
     <row r="2" spans="1:30" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
@@ -14001,7 +14000,7 @@
       <c r="K48" s="14">
         <v>4.42</v>
       </c>
-      <c r="L48" s="74">
+      <c r="L48" s="66">
         <v>3.16</v>
       </c>
       <c r="M48" s="14">
@@ -14383,7 +14382,7 @@
       <c r="K53" s="14">
         <v>3.75</v>
       </c>
-      <c r="L53" s="74">
+      <c r="L53" s="66">
         <v>3.11</v>
       </c>
       <c r="M53" s="14">
@@ -14996,7 +14995,7 @@
       <c r="X60" s="14">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="Y60" s="75">
+      <c r="Y60" s="67">
         <v>3.8500000000000001E-5</v>
       </c>
       <c r="Z60" s="17">
@@ -15398,1837 +15397,1837 @@
       <c r="U65" s="60"/>
       <c r="Z65" s="61"/>
     </row>
-    <row r="66" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B66" s="76">
-        <v>0</v>
-      </c>
-      <c r="C66" s="77" t="s">
+    <row r="66" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B66" s="68">
+        <v>0</v>
+      </c>
+      <c r="C66" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="76">
+      <c r="D66" s="68">
         <v>-1</v>
       </c>
-      <c r="E66" s="76">
+      <c r="E66" s="68">
         <v>4</v>
       </c>
-      <c r="F66" s="76">
-        <v>0</v>
-      </c>
-      <c r="G66" s="78">
-        <v>0</v>
-      </c>
-      <c r="H66" s="76">
-        <v>0</v>
-      </c>
-      <c r="I66" s="76">
-        <v>0</v>
-      </c>
-      <c r="J66" s="76">
+      <c r="F66" s="68">
+        <v>0</v>
+      </c>
+      <c r="G66" s="70">
+        <v>0</v>
+      </c>
+      <c r="H66" s="68">
+        <v>0</v>
+      </c>
+      <c r="I66" s="68">
+        <v>0</v>
+      </c>
+      <c r="J66" s="68">
         <v>0.54700000000000004</v>
       </c>
-      <c r="K66" s="76">
+      <c r="K66" s="68">
         <v>0.54700000000000004</v>
       </c>
-      <c r="L66" s="76">
+      <c r="L66" s="68">
         <v>0.54700000000000004</v>
       </c>
-      <c r="M66" s="76">
+      <c r="M66" s="68">
         <v>0.54700000000000004</v>
       </c>
-      <c r="N66" s="76">
+      <c r="N66" s="68">
         <v>0.27800000000000002</v>
       </c>
-      <c r="O66" s="76">
+      <c r="O66" s="68">
         <v>0.27800000000000002</v>
       </c>
-      <c r="P66" s="76">
+      <c r="P66" s="68">
         <v>0.27800000000000002</v>
       </c>
-      <c r="Q66" s="76">
+      <c r="Q66" s="68">
         <v>0.27800000000000002</v>
       </c>
-      <c r="R66" s="76">
+      <c r="R66" s="68">
         <f t="shared" ref="R66:S74" si="28">J66-N66-$H66</f>
         <v>0.26900000000000002</v>
       </c>
-      <c r="S66" s="76">
+      <c r="S66" s="68">
         <f t="shared" si="28"/>
         <v>0.26900000000000002</v>
       </c>
-      <c r="T66" s="76">
+      <c r="T66" s="68">
         <f t="shared" si="18"/>
         <v>0.26900000000000002</v>
       </c>
-      <c r="U66" s="78">
+      <c r="U66" s="70">
         <f t="shared" si="18"/>
         <v>0.26900000000000002</v>
       </c>
-      <c r="V66" s="76">
+      <c r="V66" s="68">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="W66" s="76">
+      <c r="W66" s="68">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="X66" s="76">
+      <c r="X66" s="68">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="Y66" s="76">
+      <c r="Y66" s="68">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="Z66" s="79">
+      <c r="Z66" s="71">
         <f>SUM(V66:Y66)</f>
         <v>0.1416</v>
       </c>
-      <c r="AA66" s="76">
+      <c r="AA66" s="68">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="AB66" s="76">
+      <c r="AB66" s="68">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="AC66" s="76">
+      <c r="AC66" s="68">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="AD66" s="76">
+      <c r="AD66" s="68">
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B67" s="76">
-        <v>1</v>
-      </c>
-      <c r="C67" s="77" t="s">
+    <row r="67" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B67" s="68">
+        <v>1</v>
+      </c>
+      <c r="C67" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="76">
+      <c r="D67" s="68">
         <v>-1</v>
       </c>
-      <c r="E67" s="76">
+      <c r="E67" s="68">
         <v>4</v>
       </c>
-      <c r="F67" s="76">
-        <v>0</v>
-      </c>
-      <c r="G67" s="78">
-        <v>0</v>
-      </c>
-      <c r="H67" s="76">
-        <v>0</v>
-      </c>
-      <c r="I67" s="76">
-        <v>0</v>
-      </c>
-      <c r="J67" s="76">
+      <c r="F67" s="68">
+        <v>0</v>
+      </c>
+      <c r="G67" s="70">
+        <v>0</v>
+      </c>
+      <c r="H67" s="68">
+        <v>0</v>
+      </c>
+      <c r="I67" s="68">
+        <v>0</v>
+      </c>
+      <c r="J67" s="68">
         <v>0.28599999999999998</v>
       </c>
-      <c r="K67" s="76">
+      <c r="K67" s="68">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L67" s="76">
+      <c r="L67" s="68">
         <v>0.56899999999999995</v>
       </c>
-      <c r="M67" s="76">
+      <c r="M67" s="68">
         <v>0.54300000000000004</v>
       </c>
-      <c r="N67" s="76">
-        <v>0</v>
-      </c>
-      <c r="O67" s="76">
+      <c r="N67" s="68">
+        <v>0</v>
+      </c>
+      <c r="O67" s="68">
         <v>0.27400000000000002</v>
       </c>
-      <c r="P67" s="76">
+      <c r="P67" s="68">
         <v>0.30199999999999999</v>
       </c>
-      <c r="Q67" s="76">
+      <c r="Q67" s="68">
         <v>0.27500000000000002</v>
       </c>
-      <c r="R67" s="76">
+      <c r="R67" s="68">
         <f t="shared" si="28"/>
         <v>0.28599999999999998</v>
       </c>
-      <c r="S67" s="76">
+      <c r="S67" s="68">
         <f t="shared" si="28"/>
         <v>0.28600000000000003</v>
       </c>
-      <c r="T67" s="76">
+      <c r="T67" s="68">
         <f t="shared" ref="T67:U67" si="29">L67-P67-$I67</f>
         <v>0.26699999999999996</v>
       </c>
-      <c r="U67" s="78">
+      <c r="U67" s="70">
         <f t="shared" si="29"/>
         <v>0.26800000000000002</v>
       </c>
-      <c r="V67" s="76">
+      <c r="V67" s="68">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="W67" s="76">
+      <c r="W67" s="68">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="X67" s="76">
+      <c r="X67" s="68">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="Y67" s="76">
+      <c r="Y67" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Z67" s="79">
+      <c r="Z67" s="71">
         <f>SUM(V67:Y67)</f>
         <v>0.191</v>
       </c>
-      <c r="AA67" s="76">
+      <c r="AA67" s="68">
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="AB67" s="76">
+      <c r="AB67" s="68">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AC67" s="76">
+      <c r="AC67" s="68">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="AD67" s="76">
+      <c r="AD67" s="68">
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:30" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="77"/>
-      <c r="G68" s="78"/>
-      <c r="U68" s="78"/>
-      <c r="Z68" s="79"/>
-    </row>
-    <row r="69" spans="2:30" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="76">
-        <v>0</v>
-      </c>
-      <c r="C69" s="77" t="s">
+    <row r="68" spans="2:30" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="69"/>
+      <c r="G68" s="70"/>
+      <c r="U68" s="70"/>
+      <c r="Z68" s="71"/>
+    </row>
+    <row r="69" spans="2:30" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="68">
+        <v>0</v>
+      </c>
+      <c r="C69" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="76">
+      <c r="D69" s="68">
         <v>-1</v>
       </c>
-      <c r="E69" s="76">
-        <v>1</v>
-      </c>
-      <c r="F69" s="76">
-        <v>0</v>
-      </c>
-      <c r="G69" s="78">
-        <v>0</v>
-      </c>
-      <c r="H69" s="76">
-        <v>1</v>
-      </c>
-      <c r="I69" s="76">
-        <v>1</v>
-      </c>
-      <c r="J69" s="76">
+      <c r="E69" s="68">
+        <v>1</v>
+      </c>
+      <c r="F69" s="68">
+        <v>0</v>
+      </c>
+      <c r="G69" s="70">
+        <v>0</v>
+      </c>
+      <c r="H69" s="68">
+        <v>1</v>
+      </c>
+      <c r="I69" s="68">
+        <v>1</v>
+      </c>
+      <c r="J69" s="68">
         <v>3.08</v>
       </c>
-      <c r="K69" s="76">
+      <c r="K69" s="68">
         <v>3.08</v>
       </c>
-      <c r="L69" s="76">
+      <c r="L69" s="68">
         <v>3.08</v>
       </c>
-      <c r="M69" s="76">
+      <c r="M69" s="68">
         <v>3.08</v>
       </c>
-      <c r="N69" s="76">
+      <c r="N69" s="68">
         <v>1.05</v>
       </c>
-      <c r="O69" s="76">
+      <c r="O69" s="68">
         <v>1.05</v>
       </c>
-      <c r="P69" s="76">
+      <c r="P69" s="68">
         <v>1.05</v>
       </c>
-      <c r="Q69" s="76">
+      <c r="Q69" s="68">
         <v>1.05</v>
       </c>
-      <c r="R69" s="76">
+      <c r="R69" s="68">
         <f t="shared" si="28"/>
         <v>1.0300000000000002</v>
       </c>
-      <c r="S69" s="76">
+      <c r="S69" s="68">
         <f t="shared" si="28"/>
         <v>1.0300000000000002</v>
       </c>
-      <c r="T69" s="76">
+      <c r="T69" s="68">
         <f t="shared" ref="T69:U74" si="30">L69-P69-$I69</f>
         <v>1.0300000000000002</v>
       </c>
-      <c r="U69" s="78">
+      <c r="U69" s="70">
         <f t="shared" si="30"/>
         <v>1.0300000000000002</v>
       </c>
-      <c r="V69" s="76">
+      <c r="V69" s="68">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="W69" s="76">
+      <c r="W69" s="68">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="X69" s="76">
+      <c r="X69" s="68">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="Y69" s="76">
+      <c r="Y69" s="68">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="Z69" s="79">
+      <c r="Z69" s="71">
         <f>SUM(V69:Y69)</f>
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="AA69" s="76">
+      <c r="AA69" s="68">
         <v>3.32E-2</v>
       </c>
-      <c r="AB69" s="76">
+      <c r="AB69" s="68">
         <v>3.32E-2</v>
       </c>
-      <c r="AC69" s="76">
+      <c r="AC69" s="68">
         <v>3.27E-2</v>
       </c>
-      <c r="AD69" s="76">
+      <c r="AD69" s="68">
         <v>3.27E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:30" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="76">
-        <v>0</v>
-      </c>
-      <c r="C70" s="77" t="s">
+    <row r="70" spans="2:30" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="68">
+        <v>0</v>
+      </c>
+      <c r="C70" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="76" t="s">
+      <c r="D70" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E70" s="76">
-        <v>1</v>
-      </c>
-      <c r="F70" s="76">
-        <v>0</v>
-      </c>
-      <c r="G70" s="78">
-        <v>0</v>
-      </c>
-      <c r="H70" s="76">
-        <v>1</v>
-      </c>
-      <c r="I70" s="76">
-        <v>1</v>
-      </c>
-      <c r="J70" s="76">
+      <c r="E70" s="68">
+        <v>1</v>
+      </c>
+      <c r="F70" s="68">
+        <v>0</v>
+      </c>
+      <c r="G70" s="70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="68">
+        <v>1</v>
+      </c>
+      <c r="I70" s="68">
+        <v>1</v>
+      </c>
+      <c r="J70" s="68">
         <v>3.47</v>
       </c>
-      <c r="K70" s="76">
+      <c r="K70" s="68">
         <v>3.47</v>
       </c>
-      <c r="L70" s="76">
+      <c r="L70" s="68">
         <v>3.47</v>
       </c>
-      <c r="M70" s="76">
+      <c r="M70" s="68">
         <v>3.47</v>
       </c>
-      <c r="N70" s="76">
+      <c r="N70" s="68">
         <v>1.27</v>
       </c>
-      <c r="O70" s="76">
+      <c r="O70" s="68">
         <v>1.27</v>
       </c>
-      <c r="P70" s="76">
+      <c r="P70" s="68">
         <v>1.27</v>
       </c>
-      <c r="Q70" s="76">
+      <c r="Q70" s="68">
         <v>1.27</v>
       </c>
-      <c r="R70" s="76">
+      <c r="R70" s="68">
         <f t="shared" si="28"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="S70" s="76">
+      <c r="S70" s="68">
         <f t="shared" si="28"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="T70" s="76">
+      <c r="T70" s="68">
         <f t="shared" si="30"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="U70" s="78">
+      <c r="U70" s="70">
         <f t="shared" si="30"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="V70" s="76">
+      <c r="V70" s="68">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="W70" s="76">
+      <c r="W70" s="68">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="X70" s="76">
+      <c r="X70" s="68">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="Y70" s="76">
+      <c r="Y70" s="68">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="Z70" s="79">
+      <c r="Z70" s="71">
         <f>SUM(V70:Y70)</f>
         <v>0.33239999999999997</v>
       </c>
-      <c r="AA70" s="76">
+      <c r="AA70" s="68">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AB70" s="76">
+      <c r="AB70" s="68">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AC70" s="76">
+      <c r="AC70" s="68">
         <v>0.19900000000000001</v>
       </c>
-      <c r="AD70" s="76">
+      <c r="AD70" s="68">
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:30" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="76">
-        <v>0</v>
-      </c>
-      <c r="C71" s="77" t="s">
+    <row r="71" spans="2:30" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="68">
+        <v>0</v>
+      </c>
+      <c r="C71" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="76" t="s">
+      <c r="D71" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="76">
-        <v>1</v>
-      </c>
-      <c r="F71" s="76">
-        <v>0</v>
-      </c>
-      <c r="G71" s="78">
-        <v>0</v>
-      </c>
-      <c r="H71" s="76">
-        <v>1</v>
-      </c>
-      <c r="I71" s="76">
-        <v>1</v>
-      </c>
-      <c r="J71" s="76">
+      <c r="E71" s="68">
+        <v>1</v>
+      </c>
+      <c r="F71" s="68">
+        <v>0</v>
+      </c>
+      <c r="G71" s="70">
+        <v>0</v>
+      </c>
+      <c r="H71" s="68">
+        <v>1</v>
+      </c>
+      <c r="I71" s="68">
+        <v>1</v>
+      </c>
+      <c r="J71" s="68">
         <v>4.45</v>
       </c>
-      <c r="K71" s="76">
+      <c r="K71" s="68">
         <v>4.45</v>
       </c>
-      <c r="L71" s="76">
+      <c r="L71" s="68">
         <v>4.45</v>
       </c>
-      <c r="M71" s="76">
+      <c r="M71" s="68">
         <v>4.45</v>
       </c>
-      <c r="N71" s="76">
+      <c r="N71" s="68">
         <v>1.75</v>
       </c>
-      <c r="O71" s="76">
+      <c r="O71" s="68">
         <v>1.75</v>
       </c>
-      <c r="P71" s="76">
+      <c r="P71" s="68">
         <v>1.75</v>
       </c>
-      <c r="Q71" s="76">
+      <c r="Q71" s="68">
         <v>1.75</v>
       </c>
-      <c r="R71" s="76">
+      <c r="R71" s="68">
         <f t="shared" si="28"/>
         <v>1.7000000000000002</v>
       </c>
-      <c r="S71" s="76">
+      <c r="S71" s="68">
         <f t="shared" si="28"/>
         <v>1.7000000000000002</v>
       </c>
-      <c r="T71" s="76">
+      <c r="T71" s="68">
         <f t="shared" si="30"/>
         <v>1.7000000000000002</v>
       </c>
-      <c r="U71" s="78">
+      <c r="U71" s="70">
         <f t="shared" si="30"/>
         <v>1.7000000000000002</v>
       </c>
-      <c r="V71" s="76">
+      <c r="V71" s="68">
         <v>0.20599999999999999</v>
       </c>
-      <c r="W71" s="76">
+      <c r="W71" s="68">
         <v>0.20599999999999999</v>
       </c>
-      <c r="X71" s="76">
+      <c r="X71" s="68">
         <v>0.20599999999999999</v>
       </c>
-      <c r="Y71" s="76">
+      <c r="Y71" s="68">
         <v>0.20599999999999999</v>
       </c>
-      <c r="Z71" s="79">
+      <c r="Z71" s="71">
         <f t="shared" ref="Z71:Z79" si="31">SUM(V71:Y71)</f>
         <v>0.82399999999999995</v>
       </c>
-      <c r="AA71" s="76">
+      <c r="AA71" s="68">
         <v>0.72</v>
       </c>
-      <c r="AB71" s="76">
+      <c r="AB71" s="68">
         <v>0.72</v>
       </c>
-      <c r="AC71" s="76">
+      <c r="AC71" s="68">
         <v>0.70099999999999996</v>
       </c>
-      <c r="AD71" s="76">
+      <c r="AD71" s="68">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="72" spans="2:30" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="76">
-        <v>1</v>
-      </c>
-      <c r="C72" s="77" t="s">
+    <row r="72" spans="2:30" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="68">
+        <v>1</v>
+      </c>
+      <c r="C72" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="76">
+      <c r="D72" s="68">
         <v>-1</v>
       </c>
-      <c r="E72" s="76">
-        <v>1</v>
-      </c>
-      <c r="F72" s="76">
-        <v>0</v>
-      </c>
-      <c r="G72" s="78">
-        <v>0</v>
-      </c>
-      <c r="H72" s="76">
-        <v>1</v>
-      </c>
-      <c r="I72" s="76">
-        <v>1</v>
-      </c>
-      <c r="J72" s="80"/>
-      <c r="K72" s="80"/>
-      <c r="L72" s="80"/>
-      <c r="M72" s="80"/>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="80"/>
-      <c r="Q72" s="80"/>
-      <c r="R72" s="76">
+      <c r="E72" s="68">
+        <v>1</v>
+      </c>
+      <c r="F72" s="68">
+        <v>0</v>
+      </c>
+      <c r="G72" s="70">
+        <v>0</v>
+      </c>
+      <c r="H72" s="68">
+        <v>1</v>
+      </c>
+      <c r="I72" s="68">
+        <v>1</v>
+      </c>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="72"/>
+      <c r="O72" s="72"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="68">
         <f t="shared" si="28"/>
         <v>-1</v>
       </c>
-      <c r="S72" s="76">
+      <c r="S72" s="68">
         <f t="shared" si="28"/>
         <v>-1</v>
       </c>
-      <c r="T72" s="76">
+      <c r="T72" s="68">
         <f t="shared" si="30"/>
         <v>-1</v>
       </c>
-      <c r="U72" s="78">
+      <c r="U72" s="70">
         <f t="shared" si="30"/>
         <v>-1</v>
       </c>
-      <c r="V72" s="80"/>
-      <c r="W72" s="80"/>
-      <c r="X72" s="80"/>
-      <c r="Y72" s="80"/>
-      <c r="Z72" s="79">
+      <c r="V72" s="72"/>
+      <c r="W72" s="72"/>
+      <c r="X72" s="72"/>
+      <c r="Y72" s="72"/>
+      <c r="Z72" s="71">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AA72" s="80"/>
-      <c r="AB72" s="80"/>
-      <c r="AC72" s="80"/>
-      <c r="AD72" s="80"/>
-    </row>
-    <row r="73" spans="2:30" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="76">
-        <v>1</v>
-      </c>
-      <c r="C73" s="77" t="s">
+      <c r="AA72" s="72"/>
+      <c r="AB72" s="72"/>
+      <c r="AC72" s="72"/>
+      <c r="AD72" s="72"/>
+    </row>
+    <row r="73" spans="2:30" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="68">
+        <v>1</v>
+      </c>
+      <c r="C73" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="76" t="s">
+      <c r="D73" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="76">
-        <v>1</v>
-      </c>
-      <c r="F73" s="76">
-        <v>0</v>
-      </c>
-      <c r="G73" s="78">
-        <v>0</v>
-      </c>
-      <c r="H73" s="76">
-        <v>1</v>
-      </c>
-      <c r="I73" s="76">
-        <v>1</v>
-      </c>
-      <c r="J73" s="80"/>
-      <c r="K73" s="80"/>
-      <c r="L73" s="80"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="80"/>
-      <c r="Q73" s="80"/>
-      <c r="R73" s="76">
+      <c r="E73" s="68">
+        <v>1</v>
+      </c>
+      <c r="F73" s="68">
+        <v>0</v>
+      </c>
+      <c r="G73" s="70">
+        <v>0</v>
+      </c>
+      <c r="H73" s="68">
+        <v>1</v>
+      </c>
+      <c r="I73" s="68">
+        <v>1</v>
+      </c>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="68">
         <f t="shared" si="28"/>
         <v>-1</v>
       </c>
-      <c r="S73" s="76">
+      <c r="S73" s="68">
         <f t="shared" si="28"/>
         <v>-1</v>
       </c>
-      <c r="T73" s="76">
+      <c r="T73" s="68">
         <f t="shared" si="30"/>
         <v>-1</v>
       </c>
-      <c r="U73" s="78">
+      <c r="U73" s="70">
         <f t="shared" si="30"/>
         <v>-1</v>
       </c>
-      <c r="V73" s="80"/>
-      <c r="W73" s="80"/>
-      <c r="X73" s="80"/>
-      <c r="Y73" s="80"/>
-      <c r="Z73" s="79">
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="72"/>
+      <c r="Y73" s="72"/>
+      <c r="Z73" s="71">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AA73" s="80"/>
-      <c r="AB73" s="80"/>
-      <c r="AC73" s="80"/>
-      <c r="AD73" s="80"/>
-    </row>
-    <row r="74" spans="2:30" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="76">
-        <v>1</v>
-      </c>
-      <c r="C74" s="77" t="s">
+      <c r="AA73" s="72"/>
+      <c r="AB73" s="72"/>
+      <c r="AC73" s="72"/>
+      <c r="AD73" s="72"/>
+    </row>
+    <row r="74" spans="2:30" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="68">
+        <v>1</v>
+      </c>
+      <c r="C74" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="76" t="s">
+      <c r="D74" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="76">
-        <v>1</v>
-      </c>
-      <c r="F74" s="76">
-        <v>0</v>
-      </c>
-      <c r="G74" s="78">
-        <v>0</v>
-      </c>
-      <c r="H74" s="76">
-        <v>1</v>
-      </c>
-      <c r="I74" s="76">
-        <v>1</v>
-      </c>
-      <c r="J74" s="76">
+      <c r="E74" s="68">
+        <v>1</v>
+      </c>
+      <c r="F74" s="68">
+        <v>0</v>
+      </c>
+      <c r="G74" s="70">
+        <v>0</v>
+      </c>
+      <c r="H74" s="68">
+        <v>1</v>
+      </c>
+      <c r="I74" s="68">
+        <v>1</v>
+      </c>
+      <c r="J74" s="68">
         <v>3.37</v>
       </c>
-      <c r="K74" s="76">
+      <c r="K74" s="68">
         <v>4.7300000000000004</v>
       </c>
-      <c r="L74" s="76">
+      <c r="L74" s="68">
         <v>4.99</v>
       </c>
-      <c r="M74" s="76">
+      <c r="M74" s="68">
         <v>4.2300000000000004</v>
       </c>
-      <c r="N74" s="76">
-        <v>0</v>
-      </c>
-      <c r="O74" s="76">
+      <c r="N74" s="68">
+        <v>0</v>
+      </c>
+      <c r="O74" s="68">
         <v>1.36</v>
       </c>
-      <c r="P74" s="76">
+      <c r="P74" s="68">
         <v>2.59</v>
       </c>
-      <c r="Q74" s="76">
+      <c r="Q74" s="68">
         <v>1.82</v>
       </c>
-      <c r="R74" s="76">
+      <c r="R74" s="68">
         <f t="shared" si="28"/>
         <v>2.37</v>
       </c>
-      <c r="S74" s="76">
+      <c r="S74" s="68">
         <f t="shared" si="28"/>
         <v>2.37</v>
       </c>
-      <c r="T74" s="76">
+      <c r="T74" s="68">
         <f t="shared" si="30"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="U74" s="78">
+      <c r="U74" s="70">
         <f>M74-Q74-$I74</f>
         <v>1.4100000000000001</v>
       </c>
-      <c r="V74" s="76">
+      <c r="V74" s="68">
         <v>0.46</v>
       </c>
-      <c r="W74" s="76">
+      <c r="W74" s="68">
         <v>0.11899999999999999</v>
       </c>
-      <c r="X74" s="76">
+      <c r="X74" s="68">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="Y74" s="76">
+      <c r="Y74" s="68">
         <v>0.19600000000000001</v>
       </c>
-      <c r="Z74" s="79">
+      <c r="Z74" s="71">
         <f t="shared" si="31"/>
         <v>0.86619999999999986</v>
       </c>
-      <c r="AA74" s="76">
+      <c r="AA74" s="68">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AB74" s="76">
+      <c r="AB74" s="68">
         <v>0.51800000000000002</v>
       </c>
-      <c r="AC74" s="76">
+      <c r="AC74" s="68">
         <v>1.37</v>
       </c>
-      <c r="AD74" s="76">
+      <c r="AD74" s="68">
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="75" spans="2:30" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="77"/>
-      <c r="G75" s="78"/>
-      <c r="U75" s="78"/>
-      <c r="Z75" s="79"/>
-    </row>
-    <row r="76" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B76" s="76">
-        <v>0</v>
-      </c>
-      <c r="C76" s="77" t="s">
+    <row r="75" spans="2:30" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="69"/>
+      <c r="G75" s="70"/>
+      <c r="U75" s="70"/>
+      <c r="Z75" s="71"/>
+    </row>
+    <row r="76" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B76" s="68">
+        <v>0</v>
+      </c>
+      <c r="C76" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="76" t="s">
+      <c r="D76" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E76" s="76" t="s">
+      <c r="E76" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="F76" s="76">
+      <c r="F76" s="68">
         <v>3</v>
       </c>
-      <c r="G76" s="78">
+      <c r="G76" s="70">
         <v>-3</v>
       </c>
-      <c r="H76" s="76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="76">
-        <v>0</v>
-      </c>
-      <c r="J76" s="76">
+      <c r="H76" s="68">
+        <v>0</v>
+      </c>
+      <c r="I76" s="68">
+        <v>0</v>
+      </c>
+      <c r="J76" s="68">
         <v>0.86599999999999999</v>
       </c>
-      <c r="K76" s="76">
+      <c r="K76" s="68">
         <v>0.51700000000000002</v>
       </c>
-      <c r="L76" s="76">
+      <c r="L76" s="68">
         <v>1.28</v>
       </c>
-      <c r="M76" s="76">
+      <c r="M76" s="68">
         <v>0.88</v>
       </c>
-      <c r="N76" s="76">
+      <c r="N76" s="68">
         <v>0.59899999999999998</v>
       </c>
-      <c r="O76" s="76">
+      <c r="O76" s="68">
         <v>0.251</v>
       </c>
-      <c r="P76" s="76">
+      <c r="P76" s="68">
         <v>0.67200000000000004</v>
       </c>
-      <c r="Q76" s="76">
+      <c r="Q76" s="68">
         <v>0.27</v>
       </c>
-      <c r="R76" s="76">
+      <c r="R76" s="68">
         <f t="shared" ref="R76:S79" si="32">J76-N76-$H76</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="S76" s="76">
+      <c r="S76" s="68">
         <f t="shared" si="32"/>
         <v>0.26600000000000001</v>
       </c>
-      <c r="T76" s="76">
+      <c r="T76" s="68">
         <f t="shared" ref="T76:U79" si="33">L76-P76-$I76</f>
         <v>0.60799999999999998</v>
       </c>
-      <c r="U76" s="81">
+      <c r="U76" s="73">
         <f t="shared" si="33"/>
         <v>0.61</v>
       </c>
-      <c r="V76" s="76">
+      <c r="V76" s="68">
         <v>0.19600000000000001</v>
       </c>
-      <c r="W76" s="76">
+      <c r="W76" s="68">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="X76" s="76">
+      <c r="X76" s="68">
         <v>0.48899999999999999</v>
       </c>
-      <c r="Y76" s="76">
+      <c r="Y76" s="68">
         <v>0.183</v>
       </c>
-      <c r="Z76" s="79">
+      <c r="Z76" s="71">
         <f t="shared" si="31"/>
         <v>0.92399999999999993</v>
       </c>
-      <c r="AA76" s="76">
+      <c r="AA76" s="68">
         <v>0.44700000000000001</v>
       </c>
-      <c r="AB76" s="76">
+      <c r="AB76" s="68">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="AC76" s="76">
+      <c r="AC76" s="68">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="AD76" s="76">
+      <c r="AD76" s="68">
         <v>0.41</v>
       </c>
     </row>
-    <row r="77" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B77" s="76">
-        <v>1</v>
-      </c>
-      <c r="C77" s="77" t="s">
+    <row r="77" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B77" s="68">
+        <v>1</v>
+      </c>
+      <c r="C77" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="D77" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E77" s="76" t="s">
+      <c r="E77" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="F77" s="76">
+      <c r="F77" s="68">
         <v>3</v>
       </c>
-      <c r="G77" s="78">
+      <c r="G77" s="70">
         <v>-3</v>
       </c>
-      <c r="H77" s="76">
-        <v>0</v>
-      </c>
-      <c r="I77" s="76">
-        <v>0</v>
-      </c>
-      <c r="J77" s="76">
+      <c r="H77" s="68">
+        <v>0</v>
+      </c>
+      <c r="I77" s="68">
+        <v>0</v>
+      </c>
+      <c r="J77" s="68">
         <v>0.41299999999999998</v>
       </c>
-      <c r="K77" s="76">
+      <c r="K77" s="68">
         <v>0.63200000000000001</v>
       </c>
-      <c r="L77" s="76">
+      <c r="L77" s="68">
         <v>1.1100000000000001</v>
       </c>
-      <c r="M77" s="76">
+      <c r="M77" s="68">
         <v>0.64700000000000002</v>
       </c>
-      <c r="N77" s="76">
-        <v>0</v>
-      </c>
-      <c r="O77" s="76">
+      <c r="N77" s="68">
+        <v>0</v>
+      </c>
+      <c r="O77" s="68">
         <v>0.219</v>
       </c>
-      <c r="P77" s="76">
+      <c r="P77" s="68">
         <v>0.74199999999999999</v>
       </c>
-      <c r="Q77" s="76">
+      <c r="Q77" s="68">
         <v>0.27600000000000002</v>
       </c>
-      <c r="R77" s="76">
+      <c r="R77" s="68">
         <f t="shared" si="32"/>
         <v>0.41299999999999998</v>
       </c>
-      <c r="S77" s="76">
+      <c r="S77" s="68">
         <f t="shared" si="32"/>
         <v>0.41300000000000003</v>
       </c>
-      <c r="T77" s="76">
+      <c r="T77" s="68">
         <f t="shared" si="33"/>
         <v>0.3680000000000001</v>
       </c>
-      <c r="U77" s="81">
+      <c r="U77" s="73">
         <f t="shared" si="33"/>
         <v>0.371</v>
       </c>
-      <c r="V77" s="76">
+      <c r="V77" s="68">
         <v>0.50800000000000001</v>
       </c>
-      <c r="W77" s="76">
+      <c r="W77" s="68">
         <v>8.4600000000000005E-3</v>
       </c>
-      <c r="X77" s="76">
+      <c r="X77" s="68">
         <v>0.30599999999999999</v>
       </c>
-      <c r="Y77" s="76">
+      <c r="Y77" s="68">
         <v>0.157</v>
       </c>
-      <c r="Z77" s="79">
+      <c r="Z77" s="71">
         <f t="shared" si="31"/>
         <v>0.97946</v>
       </c>
-      <c r="AA77" s="76">
+      <c r="AA77" s="68">
         <v>0.22700000000000001</v>
       </c>
-      <c r="AB77" s="76">
+      <c r="AB77" s="68">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="AC77" s="76">
+      <c r="AC77" s="68">
         <v>0.214</v>
       </c>
-      <c r="AD77" s="76">
+      <c r="AD77" s="68">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B78" s="76">
-        <v>0</v>
-      </c>
-      <c r="C78" s="77" t="s">
+    <row r="78" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B78" s="68">
+        <v>0</v>
+      </c>
+      <c r="C78" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="76" t="s">
+      <c r="D78" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E78" s="76" t="s">
+      <c r="E78" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="F78" s="76">
+      <c r="F78" s="68">
         <v>4</v>
       </c>
-      <c r="G78" s="78">
+      <c r="G78" s="70">
         <v>-4</v>
       </c>
-      <c r="H78" s="76">
-        <v>0</v>
-      </c>
-      <c r="I78" s="76">
-        <v>0</v>
-      </c>
-      <c r="J78" s="76">
+      <c r="H78" s="68">
+        <v>0</v>
+      </c>
+      <c r="I78" s="68">
+        <v>0</v>
+      </c>
+      <c r="J78" s="68">
         <v>0.56599999999999995</v>
       </c>
-      <c r="K78" s="76">
+      <c r="K78" s="68">
         <v>0.33200000000000002</v>
       </c>
-      <c r="L78" s="76">
+      <c r="L78" s="68">
         <v>0.96499999999999997</v>
       </c>
-      <c r="M78" s="76">
+      <c r="M78" s="68">
         <v>0.58899999999999997</v>
       </c>
-      <c r="N78" s="76">
+      <c r="N78" s="68">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O78" s="76">
+      <c r="O78" s="68">
         <v>0.159</v>
       </c>
-      <c r="P78" s="76">
+      <c r="P78" s="68">
         <v>0.55200000000000005</v>
       </c>
-      <c r="Q78" s="76">
+      <c r="Q78" s="68">
         <v>0.17599999999999999</v>
       </c>
-      <c r="R78" s="76">
+      <c r="R78" s="68">
         <f t="shared" si="32"/>
         <v>0.17399999999999993</v>
       </c>
-      <c r="S78" s="76">
+      <c r="S78" s="68">
         <f t="shared" si="32"/>
         <v>0.17300000000000001</v>
       </c>
-      <c r="T78" s="76">
+      <c r="T78" s="68">
         <f t="shared" si="33"/>
         <v>0.41299999999999992</v>
       </c>
-      <c r="U78" s="81">
+      <c r="U78" s="73">
         <f t="shared" si="33"/>
         <v>0.41299999999999998</v>
       </c>
-      <c r="V78" s="76">
+      <c r="V78" s="68">
         <v>0.15</v>
       </c>
-      <c r="W78" s="76">
+      <c r="W78" s="68">
         <v>1.38E-2</v>
       </c>
-      <c r="X78" s="76">
+      <c r="X78" s="68">
         <v>0.52100000000000002</v>
       </c>
-      <c r="Y78" s="76">
+      <c r="Y78" s="68">
         <v>0.128</v>
       </c>
-      <c r="Z78" s="79">
+      <c r="Z78" s="71">
         <f t="shared" si="31"/>
         <v>0.81280000000000008</v>
       </c>
-      <c r="AA78" s="76">
+      <c r="AA78" s="68">
         <v>0.34699999999999998</v>
       </c>
-      <c r="AB78" s="76">
+      <c r="AB78" s="68">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="AC78" s="76">
+      <c r="AC78" s="68">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="AD78" s="76">
+      <c r="AD78" s="68">
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B79" s="76">
-        <v>1</v>
-      </c>
-      <c r="C79" s="77" t="s">
+    <row r="79" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B79" s="68">
+        <v>1</v>
+      </c>
+      <c r="C79" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="76" t="s">
+      <c r="D79" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="76" t="s">
+      <c r="E79" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="F79" s="76">
+      <c r="F79" s="68">
         <v>4</v>
       </c>
-      <c r="G79" s="78">
+      <c r="G79" s="70">
         <v>-4</v>
       </c>
-      <c r="H79" s="76">
-        <v>0</v>
-      </c>
-      <c r="I79" s="76">
-        <v>0</v>
-      </c>
-      <c r="J79" s="76">
+      <c r="H79" s="68">
+        <v>0</v>
+      </c>
+      <c r="I79" s="68">
+        <v>0</v>
+      </c>
+      <c r="J79" s="68">
         <v>0.25900000000000001</v>
       </c>
-      <c r="K79" s="76">
+      <c r="K79" s="68">
         <v>0.41499999999999998</v>
       </c>
-      <c r="L79" s="76">
+      <c r="L79" s="68">
         <v>0.85499999999999998</v>
       </c>
-      <c r="M79" s="76">
+      <c r="M79" s="68">
         <v>0.46200000000000002</v>
       </c>
-      <c r="N79" s="76">
-        <v>0</v>
-      </c>
-      <c r="O79" s="76">
+      <c r="N79" s="68">
+        <v>0</v>
+      </c>
+      <c r="O79" s="68">
         <v>0.157</v>
       </c>
-      <c r="P79" s="76">
+      <c r="P79" s="68">
         <v>0.56899999999999995</v>
       </c>
-      <c r="Q79" s="76">
+      <c r="Q79" s="68">
         <v>0.17499999999999999</v>
       </c>
-      <c r="R79" s="76">
+      <c r="R79" s="68">
         <f t="shared" si="32"/>
         <v>0.25900000000000001</v>
       </c>
-      <c r="S79" s="76">
+      <c r="S79" s="68">
         <f t="shared" si="32"/>
         <v>0.25800000000000001</v>
       </c>
-      <c r="T79" s="76">
+      <c r="T79" s="68">
         <f t="shared" si="33"/>
         <v>0.28600000000000003</v>
       </c>
-      <c r="U79" s="81">
+      <c r="U79" s="73">
         <f t="shared" si="33"/>
         <v>0.28700000000000003</v>
       </c>
-      <c r="V79" s="76">
+      <c r="V79" s="68">
         <v>0.437</v>
       </c>
-      <c r="W79" s="76">
+      <c r="W79" s="68">
         <v>2.7200000000000002E-3</v>
       </c>
-      <c r="X79" s="76">
+      <c r="X79" s="68">
         <v>0.38700000000000001</v>
       </c>
-      <c r="Y79" s="76">
+      <c r="Y79" s="68">
         <v>0.107</v>
       </c>
-      <c r="Z79" s="79">
+      <c r="Z79" s="71">
         <f t="shared" si="31"/>
         <v>0.93371999999999999</v>
       </c>
-      <c r="AA79" s="76">
+      <c r="AA79" s="68">
         <v>0.22</v>
       </c>
-      <c r="AB79" s="76">
+      <c r="AB79" s="68">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="AC79" s="76">
+      <c r="AC79" s="68">
         <v>0.114</v>
       </c>
-      <c r="AD79" s="76">
+      <c r="AD79" s="68">
         <v>0.107</v>
       </c>
     </row>
-    <row r="80" spans="2:30" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="77"/>
-      <c r="G80" s="78"/>
-      <c r="U80" s="78"/>
-      <c r="Z80" s="79"/>
-    </row>
-    <row r="81" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B81" s="76">
-        <v>0</v>
-      </c>
-      <c r="C81" s="77" t="s">
+    <row r="80" spans="2:30" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="69"/>
+      <c r="G80" s="70"/>
+      <c r="U80" s="70"/>
+      <c r="Z80" s="71"/>
+    </row>
+    <row r="81" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B81" s="68">
+        <v>0</v>
+      </c>
+      <c r="C81" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="76">
+      <c r="D81" s="68">
         <v>2</v>
       </c>
-      <c r="E81" s="76" t="s">
+      <c r="E81" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="F81" s="76">
+      <c r="F81" s="68">
         <v>-2</v>
       </c>
-      <c r="G81" s="78">
+      <c r="G81" s="70">
         <v>-2</v>
       </c>
-      <c r="H81" s="76">
-        <v>0</v>
-      </c>
-      <c r="I81" s="76">
-        <v>0</v>
-      </c>
-      <c r="J81" s="76">
+      <c r="H81" s="68">
+        <v>0</v>
+      </c>
+      <c r="I81" s="68">
+        <v>0</v>
+      </c>
+      <c r="J81" s="68">
         <v>0.54100000000000004</v>
       </c>
-      <c r="K81" s="76">
+      <c r="K81" s="68">
         <v>0.437</v>
       </c>
-      <c r="L81" s="76">
+      <c r="L81" s="68">
         <v>0.436</v>
       </c>
-      <c r="M81" s="76">
+      <c r="M81" s="68">
         <v>0.375</v>
       </c>
-      <c r="N81" s="76">
+      <c r="N81" s="68">
         <v>0.29899999999999999</v>
       </c>
-      <c r="O81" s="76">
+      <c r="O81" s="68">
         <v>0.19500000000000001</v>
       </c>
-      <c r="P81" s="76">
+      <c r="P81" s="68">
         <v>0.248</v>
       </c>
-      <c r="Q81" s="76">
+      <c r="Q81" s="68">
         <v>0.187</v>
       </c>
-      <c r="R81" s="76">
+      <c r="R81" s="68">
         <f t="shared" ref="R81:S82" si="34">J81-N81-$H81</f>
         <v>0.24200000000000005</v>
       </c>
-      <c r="S81" s="76">
+      <c r="S81" s="68">
         <f t="shared" si="34"/>
         <v>0.24199999999999999</v>
       </c>
-      <c r="T81" s="76">
+      <c r="T81" s="68">
         <f t="shared" ref="T81:U82" si="35">L81-P81-$I81</f>
         <v>0.188</v>
       </c>
-      <c r="U81" s="78">
+      <c r="U81" s="70">
         <f t="shared" si="35"/>
         <v>0.188</v>
       </c>
-      <c r="V81" s="76">
+      <c r="V81" s="68">
         <v>0.222</v>
       </c>
-      <c r="W81" s="76">
+      <c r="W81" s="68">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="X81" s="76">
+      <c r="X81" s="68">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="Y81" s="76">
+      <c r="Y81" s="68">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="Z81" s="79">
+      <c r="Z81" s="71">
         <f t="shared" ref="Z81:Z88" si="36">SUM(V81:Y81)</f>
         <v>0.34179999999999999</v>
       </c>
-      <c r="AA81" s="76">
+      <c r="AA81" s="68">
         <v>0.08</v>
       </c>
-      <c r="AB81" s="76">
+      <c r="AB81" s="68">
         <v>1.26E-2</v>
       </c>
-      <c r="AC81" s="76">
+      <c r="AC81" s="68">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="AD81" s="76">
+      <c r="AD81" s="68">
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:30" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="76">
-        <v>0</v>
-      </c>
-      <c r="C82" s="77" t="s">
+    <row r="82" spans="2:30" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="68">
+        <v>0</v>
+      </c>
+      <c r="C82" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="76" t="s">
+      <c r="D82" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="E82" s="76">
+      <c r="E82" s="68">
         <v>4</v>
       </c>
-      <c r="F82" s="76">
+      <c r="F82" s="68">
         <v>-4</v>
       </c>
-      <c r="G82" s="78">
+      <c r="G82" s="70">
         <v>-4</v>
       </c>
-      <c r="H82" s="76">
-        <v>0</v>
-      </c>
-      <c r="I82" s="76">
-        <v>0</v>
-      </c>
-      <c r="J82" s="76">
+      <c r="H82" s="68">
+        <v>0</v>
+      </c>
+      <c r="I82" s="68">
+        <v>0</v>
+      </c>
+      <c r="J82" s="68">
         <v>1.65</v>
       </c>
-      <c r="K82" s="76">
+      <c r="K82" s="68">
         <v>1.01</v>
       </c>
-      <c r="L82" s="76">
+      <c r="L82" s="68">
         <v>0.96699999999999997</v>
       </c>
-      <c r="M82" s="76">
+      <c r="M82" s="68">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N82" s="76">
+      <c r="N82" s="68">
         <v>0.95</v>
       </c>
-      <c r="O82" s="76">
+      <c r="O82" s="68">
         <v>0.30299999999999999</v>
       </c>
-      <c r="P82" s="76">
+      <c r="P82" s="68">
         <v>0.66900000000000004</v>
       </c>
-      <c r="Q82" s="76">
+      <c r="Q82" s="68">
         <v>0.27200000000000002</v>
       </c>
-      <c r="R82" s="76">
+      <c r="R82" s="68">
         <f t="shared" si="34"/>
         <v>0.7</v>
       </c>
-      <c r="S82" s="76">
+      <c r="S82" s="68">
         <f t="shared" si="34"/>
         <v>0.70700000000000007</v>
       </c>
-      <c r="T82" s="76">
+      <c r="T82" s="68">
         <f t="shared" si="35"/>
         <v>0.29799999999999993</v>
       </c>
-      <c r="U82" s="78">
+      <c r="U82" s="70">
         <f t="shared" si="35"/>
         <v>0.29799999999999993</v>
       </c>
-      <c r="V82" s="76">
+      <c r="V82" s="68">
         <v>0.51800000000000002</v>
       </c>
-      <c r="W82" s="76">
+      <c r="W82" s="68">
         <v>0.126</v>
       </c>
-      <c r="X82" s="76">
+      <c r="X82" s="68">
         <v>0.14799999999999999</v>
       </c>
-      <c r="Y82" s="76">
+      <c r="Y82" s="68">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="Z82" s="79">
+      <c r="Z82" s="71">
         <f t="shared" si="36"/>
         <v>0.80530000000000002</v>
       </c>
-      <c r="AA82" s="76">
+      <c r="AA82" s="68">
         <v>0.59199999999999997</v>
       </c>
-      <c r="AB82" s="76">
+      <c r="AB82" s="68">
         <v>4.19E-2</v>
       </c>
-      <c r="AC82" s="76">
+      <c r="AC82" s="68">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AD82" s="76">
+      <c r="AD82" s="68">
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B83" s="76">
-        <v>0</v>
-      </c>
-      <c r="C83" s="77" t="s">
+    <row r="83" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B83" s="68">
+        <v>0</v>
+      </c>
+      <c r="C83" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="76">
+      <c r="D83" s="68">
         <v>10</v>
       </c>
-      <c r="E83" s="76">
+      <c r="E83" s="68">
         <v>3</v>
       </c>
-      <c r="F83" s="76">
+      <c r="F83" s="68">
         <v>-3</v>
       </c>
-      <c r="G83" s="78">
+      <c r="G83" s="70">
         <v>-3</v>
       </c>
-      <c r="H83" s="76">
-        <v>0</v>
-      </c>
-      <c r="I83" s="76">
-        <v>0</v>
-      </c>
-      <c r="J83" s="76">
+      <c r="H83" s="68">
+        <v>0</v>
+      </c>
+      <c r="I83" s="68">
+        <v>0</v>
+      </c>
+      <c r="J83" s="68">
         <v>2.27</v>
       </c>
-      <c r="K83" s="76">
+      <c r="K83" s="68">
         <v>1.58</v>
       </c>
-      <c r="L83" s="76">
+      <c r="L83" s="68">
         <v>1.57</v>
       </c>
-      <c r="M83" s="76">
+      <c r="M83" s="68">
         <v>0.91100000000000003</v>
       </c>
-      <c r="N83" s="76">
+      <c r="N83" s="68">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O83" s="76">
+      <c r="O83" s="68">
         <v>0.46200000000000002</v>
       </c>
-      <c r="P83" s="76">
+      <c r="P83" s="68">
         <v>1.1100000000000001</v>
       </c>
-      <c r="Q83" s="76">
+      <c r="Q83" s="68">
         <v>0.44900000000000001</v>
       </c>
-      <c r="R83" s="76">
+      <c r="R83" s="68">
         <f>J83-N83-$H83</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="S83" s="76">
+      <c r="S83" s="68">
         <f>K83-O83-$H83</f>
         <v>1.1180000000000001</v>
       </c>
-      <c r="T83" s="76">
+      <c r="T83" s="68">
         <f>L83-P83-$I83</f>
         <v>0.45999999999999996</v>
       </c>
-      <c r="U83" s="78">
+      <c r="U83" s="70">
         <f>M83-Q83-$I83</f>
         <v>0.46200000000000002</v>
       </c>
-      <c r="V83" s="76">
+      <c r="V83" s="68">
         <v>0.504</v>
       </c>
-      <c r="W83" s="76">
+      <c r="W83" s="68">
         <v>0.19800000000000001</v>
       </c>
-      <c r="X83" s="76">
+      <c r="X83" s="68">
         <v>0.20399999999999999</v>
       </c>
-      <c r="Y83" s="76">
+      <c r="Y83" s="68">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="Z83" s="79">
+      <c r="Z83" s="71">
         <f t="shared" si="36"/>
         <v>0.9796999999999999</v>
       </c>
-      <c r="AA83" s="76">
+      <c r="AA83" s="68">
         <v>0.80600000000000005</v>
       </c>
-      <c r="AB83" s="76">
+      <c r="AB83" s="68">
         <v>0.125</v>
       </c>
-      <c r="AC83" s="76">
+      <c r="AC83" s="68">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AD83" s="76">
+      <c r="AD83" s="68">
         <v>0.128</v>
       </c>
     </row>
-    <row r="84" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B84" s="76">
-        <v>0</v>
-      </c>
-      <c r="C84" s="77" t="s">
+    <row r="84" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B84" s="68">
+        <v>0</v>
+      </c>
+      <c r="C84" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="D84" s="76">
+      <c r="D84" s="68">
         <v>11</v>
       </c>
-      <c r="E84" s="76">
+      <c r="E84" s="68">
         <v>4</v>
       </c>
-      <c r="F84" s="76">
+      <c r="F84" s="68">
         <v>-4</v>
       </c>
-      <c r="G84" s="78">
+      <c r="G84" s="70">
         <v>-4</v>
       </c>
-      <c r="H84" s="76">
-        <v>0</v>
-      </c>
-      <c r="I84" s="76">
-        <v>0</v>
-      </c>
-      <c r="J84" s="76">
+      <c r="H84" s="68">
+        <v>0</v>
+      </c>
+      <c r="I84" s="68">
+        <v>0</v>
+      </c>
+      <c r="J84" s="68">
         <v>2</v>
       </c>
-      <c r="K84" s="76">
+      <c r="K84" s="68">
         <v>1.3</v>
       </c>
-      <c r="L84" s="76">
+      <c r="L84" s="68">
         <v>1.28</v>
       </c>
-      <c r="M84" s="76">
+      <c r="M84" s="68">
         <v>0.63400000000000001</v>
       </c>
-      <c r="N84" s="76">
+      <c r="N84" s="68">
         <v>1.03</v>
       </c>
-      <c r="O84" s="76">
+      <c r="O84" s="68">
         <v>0.32500000000000001</v>
       </c>
-      <c r="P84" s="76">
+      <c r="P84" s="68">
         <v>0.96</v>
       </c>
-      <c r="Q84" s="76">
+      <c r="Q84" s="68">
         <v>0.31</v>
       </c>
-      <c r="R84" s="76">
+      <c r="R84" s="68">
         <f>J84-N84-$H84</f>
         <v>0.97</v>
       </c>
-      <c r="S84" s="76">
+      <c r="S84" s="68">
         <f>K84-O84-$H84</f>
         <v>0.97500000000000009</v>
       </c>
-      <c r="T84" s="76">
+      <c r="T84" s="68">
         <f>L84-P84-$I84</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="U84" s="78">
+      <c r="U84" s="70">
         <f>M84-Q84-$I84</f>
         <v>0.32400000000000001</v>
       </c>
-      <c r="V84" s="76">
+      <c r="V84" s="68">
         <v>0.56799999999999995</v>
       </c>
-      <c r="W84" s="76">
+      <c r="W84" s="68">
         <v>0.17399999999999999</v>
       </c>
-      <c r="X84" s="76">
+      <c r="X84" s="68">
         <v>0.183</v>
       </c>
-      <c r="Y84" s="76">
+      <c r="Y84" s="68">
         <v>4.53E-2</v>
       </c>
-      <c r="Z84" s="79">
+      <c r="Z84" s="71">
         <f t="shared" si="36"/>
         <v>0.97030000000000005</v>
       </c>
-      <c r="AA84" s="76">
+      <c r="AA84" s="68">
         <v>0.76100000000000001</v>
       </c>
-      <c r="AB84" s="76">
+      <c r="AB84" s="68">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="AC84" s="76">
+      <c r="AC84" s="68">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AD84" s="76">
+      <c r="AD84" s="68">
         <v>7.4099999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B85" s="76">
-        <v>1</v>
-      </c>
-      <c r="C85" s="77" t="s">
+    <row r="85" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B85" s="68">
+        <v>1</v>
+      </c>
+      <c r="C85" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="76">
+      <c r="D85" s="68">
         <v>2</v>
       </c>
-      <c r="E85" s="76" t="s">
+      <c r="E85" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="76">
+      <c r="F85" s="68">
         <v>-2</v>
       </c>
-      <c r="G85" s="78">
+      <c r="G85" s="70">
         <v>-2</v>
       </c>
-      <c r="H85" s="76">
-        <v>0</v>
-      </c>
-      <c r="I85" s="76">
-        <v>0</v>
-      </c>
-      <c r="J85" s="76">
+      <c r="H85" s="68">
+        <v>0</v>
+      </c>
+      <c r="I85" s="68">
+        <v>0</v>
+      </c>
+      <c r="J85" s="68">
         <v>0.34899999999999998</v>
       </c>
-      <c r="K85" s="76">
+      <c r="K85" s="68">
         <v>0.53200000000000003</v>
       </c>
-      <c r="L85" s="76">
+      <c r="L85" s="68">
         <v>0.54400000000000004</v>
       </c>
-      <c r="M85" s="76">
+      <c r="M85" s="68">
         <v>0.36199999999999999</v>
       </c>
-      <c r="N85" s="76">
-        <v>0</v>
-      </c>
-      <c r="O85" s="76">
+      <c r="N85" s="68">
+        <v>0</v>
+      </c>
+      <c r="O85" s="68">
         <v>0.182</v>
       </c>
-      <c r="P85" s="76">
+      <c r="P85" s="68">
         <v>0.36299999999999999</v>
       </c>
-      <c r="Q85" s="76">
+      <c r="Q85" s="68">
         <v>0.18099999999999999</v>
       </c>
-      <c r="R85" s="76">
+      <c r="R85" s="68">
         <f t="shared" ref="R85:S86" si="37">J85-N85-$H85</f>
         <v>0.34899999999999998</v>
       </c>
-      <c r="S85" s="76">
+      <c r="S85" s="68">
         <f t="shared" si="37"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="T85" s="76">
+      <c r="T85" s="68">
         <f t="shared" ref="T85:U86" si="38">L85-P85-$I85</f>
         <v>0.18100000000000005</v>
       </c>
-      <c r="U85" s="78">
+      <c r="U85" s="70">
         <f t="shared" si="38"/>
         <v>0.18099999999999999</v>
       </c>
-      <c r="V85" s="76">
+      <c r="V85" s="68">
         <v>0.47599999999999998</v>
       </c>
-      <c r="W85" s="76">
+      <c r="W85" s="68">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="X85" s="76">
+      <c r="X85" s="68">
         <v>2.2120000000000001E-2</v>
       </c>
-      <c r="Y85" s="76">
+      <c r="Y85" s="68">
         <v>8.1300000000000001E-3</v>
       </c>
-      <c r="Z85" s="79">
+      <c r="Z85" s="71">
         <f t="shared" si="36"/>
         <v>0.52904999999999991</v>
       </c>
-      <c r="AA85" s="76">
+      <c r="AA85" s="68">
         <v>7.7099999999999998E-3</v>
       </c>
-      <c r="AB85" s="76">
+      <c r="AB85" s="68">
         <v>5.62E-3</v>
       </c>
-      <c r="AC85" s="76">
+      <c r="AC85" s="68">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AD85" s="76">
+      <c r="AD85" s="68">
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="86" spans="2:30" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B86" s="76">
-        <v>1</v>
-      </c>
-      <c r="C86" s="77" t="s">
+    <row r="86" spans="2:30" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86" s="68">
+        <v>1</v>
+      </c>
+      <c r="C86" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="76" t="s">
+      <c r="D86" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="E86" s="76">
+      <c r="E86" s="68">
         <v>4</v>
       </c>
-      <c r="F86" s="76">
+      <c r="F86" s="68">
         <v>-4</v>
       </c>
-      <c r="G86" s="78">
+      <c r="G86" s="70">
         <v>-4</v>
       </c>
-      <c r="H86" s="76">
-        <v>0</v>
-      </c>
-      <c r="I86" s="76">
-        <v>0</v>
-      </c>
-      <c r="J86" s="76">
+      <c r="H86" s="68">
+        <v>0</v>
+      </c>
+      <c r="I86" s="68">
+        <v>0</v>
+      </c>
+      <c r="J86" s="68">
         <v>1.48</v>
       </c>
-      <c r="K86" s="76">
+      <c r="K86" s="68">
         <v>1.73</v>
       </c>
-      <c r="L86" s="76">
+      <c r="L86" s="68">
         <v>1.75</v>
       </c>
-      <c r="M86" s="76">
+      <c r="M86" s="68">
         <v>0.52500000000000002</v>
       </c>
-      <c r="N86" s="76">
-        <v>0</v>
-      </c>
-      <c r="O86" s="76">
+      <c r="N86" s="68">
+        <v>0</v>
+      </c>
+      <c r="O86" s="68">
         <v>0.251</v>
       </c>
-      <c r="P86" s="76">
+      <c r="P86" s="68">
         <v>1.5</v>
       </c>
-      <c r="Q86" s="76">
+      <c r="Q86" s="68">
         <v>0.27</v>
       </c>
-      <c r="R86" s="76">
+      <c r="R86" s="68">
         <f t="shared" si="37"/>
         <v>1.48</v>
       </c>
-      <c r="S86" s="76">
+      <c r="S86" s="68">
         <f t="shared" si="37"/>
         <v>1.4790000000000001</v>
       </c>
-      <c r="T86" s="76">
+      <c r="T86" s="68">
         <f t="shared" si="38"/>
         <v>0.25</v>
       </c>
-      <c r="U86" s="78">
+      <c r="U86" s="70">
         <f t="shared" si="38"/>
         <v>0.255</v>
       </c>
-      <c r="V86" s="76">
+      <c r="V86" s="68">
         <v>0.82499999999999996</v>
       </c>
-      <c r="W86" s="76">
+      <c r="W86" s="68">
         <v>5.5500000000000002E-3</v>
       </c>
-      <c r="X86" s="76">
+      <c r="X86" s="68">
         <v>4.9800000000000001E-3</v>
       </c>
-      <c r="Y86" s="76">
+      <c r="Y86" s="68">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="Z86" s="79">
+      <c r="Z86" s="71">
         <f t="shared" si="36"/>
         <v>0.84802999999999995</v>
       </c>
-      <c r="AA86" s="76">
+      <c r="AA86" s="68">
         <v>7.4700000000000001E-3</v>
       </c>
-      <c r="AB86" s="76">
+      <c r="AB86" s="68">
         <v>4.7600000000000003E-3</v>
       </c>
-      <c r="AC86" s="76">
+      <c r="AC86" s="68">
         <v>1.23</v>
       </c>
-      <c r="AD86" s="76">
+      <c r="AD86" s="68">
         <v>4.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="87" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B87" s="76">
-        <v>1</v>
-      </c>
-      <c r="C87" s="77" t="s">
+    <row r="87" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B87" s="68">
+        <v>1</v>
+      </c>
+      <c r="C87" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="D87" s="76">
+      <c r="D87" s="68">
         <v>10</v>
       </c>
-      <c r="E87" s="76">
+      <c r="E87" s="68">
         <v>3</v>
       </c>
-      <c r="F87" s="76">
+      <c r="F87" s="68">
         <v>-3</v>
       </c>
-      <c r="G87" s="78">
+      <c r="G87" s="70">
         <v>-3</v>
       </c>
-      <c r="H87" s="76">
-        <v>0</v>
-      </c>
-      <c r="I87" s="76">
-        <v>0</v>
-      </c>
-      <c r="J87" s="76">
+      <c r="H87" s="68">
+        <v>0</v>
+      </c>
+      <c r="I87" s="68">
+        <v>0</v>
+      </c>
+      <c r="J87" s="68">
         <v>2.35</v>
       </c>
-      <c r="K87" s="76">
+      <c r="K87" s="68">
         <v>2.7</v>
       </c>
-      <c r="L87" s="76">
+      <c r="L87" s="68">
         <v>2.79</v>
       </c>
-      <c r="M87" s="76">
+      <c r="M87" s="68">
         <v>1.1100000000000001</v>
       </c>
-      <c r="N87" s="76">
-        <v>0</v>
-      </c>
-      <c r="O87" s="76">
+      <c r="N87" s="68">
+        <v>0</v>
+      </c>
+      <c r="O87" s="68">
         <v>0.34799999999999998</v>
       </c>
-      <c r="P87" s="76">
+      <c r="P87" s="68">
         <v>2.4300000000000002</v>
       </c>
-      <c r="Q87" s="76">
+      <c r="Q87" s="68">
         <v>0.74299999999999999</v>
       </c>
-      <c r="R87" s="76">
+      <c r="R87" s="68">
         <f>J87-N87-$H87</f>
         <v>2.35</v>
       </c>
-      <c r="S87" s="76">
+      <c r="S87" s="68">
         <f>K87-O87-$H87</f>
         <v>2.3520000000000003</v>
       </c>
-      <c r="T87" s="76">
+      <c r="T87" s="68">
         <f>L87-P87-$I87</f>
         <v>0.35999999999999988</v>
       </c>
-      <c r="U87" s="78">
+      <c r="U87" s="70">
         <f>M87-Q87-$I87</f>
         <v>0.3670000000000001</v>
       </c>
-      <c r="V87" s="76">
+      <c r="V87" s="68">
         <v>0.84299999999999997</v>
       </c>
-      <c r="W87" s="76">
+      <c r="W87" s="68">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="X87" s="76">
+      <c r="X87" s="68">
         <v>1.11E-2</v>
       </c>
-      <c r="Y87" s="76">
+      <c r="Y87" s="68">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="Z87" s="79">
+      <c r="Z87" s="71">
         <f t="shared" si="36"/>
         <v>0.95520000000000005</v>
       </c>
-      <c r="AA87" s="76">
+      <c r="AA87" s="68">
         <v>2.7E-2</v>
       </c>
-      <c r="AB87" s="76">
+      <c r="AB87" s="68">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="AC87" s="76">
+      <c r="AC87" s="68">
         <v>2.02</v>
       </c>
-      <c r="AD87" s="76">
+      <c r="AD87" s="68">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:30" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B88" s="76">
-        <v>1</v>
-      </c>
-      <c r="C88" s="77" t="s">
+    <row r="88" spans="2:30" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B88" s="68">
+        <v>1</v>
+      </c>
+      <c r="C88" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="D88" s="76">
+      <c r="D88" s="68">
         <v>11</v>
       </c>
-      <c r="E88" s="76">
+      <c r="E88" s="68">
         <v>4</v>
       </c>
-      <c r="F88" s="76">
+      <c r="F88" s="68">
         <v>-4</v>
       </c>
-      <c r="G88" s="78">
+      <c r="G88" s="70">
         <v>-4</v>
       </c>
-      <c r="H88" s="76">
-        <v>0</v>
-      </c>
-      <c r="I88" s="76">
-        <v>0</v>
-      </c>
-      <c r="J88" s="76">
+      <c r="H88" s="68">
+        <v>0</v>
+      </c>
+      <c r="I88" s="68">
+        <v>0</v>
+      </c>
+      <c r="J88" s="68">
         <v>2.06</v>
       </c>
-      <c r="K88" s="76">
+      <c r="K88" s="68">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L88" s="76">
+      <c r="L88" s="68">
         <v>2.34</v>
       </c>
-      <c r="M88" s="76">
+      <c r="M88" s="68">
         <v>0.73199999999999998</v>
       </c>
-      <c r="N88" s="76">
-        <v>0</v>
-      </c>
-      <c r="O88" s="76">
+      <c r="N88" s="68">
+        <v>0</v>
+      </c>
+      <c r="O88" s="68">
         <v>0.254</v>
       </c>
-      <c r="P88" s="76">
+      <c r="P88" s="68">
         <v>2.0699999999999998</v>
       </c>
-      <c r="Q88" s="76">
+      <c r="Q88" s="68">
         <v>0.46500000000000002</v>
       </c>
-      <c r="R88" s="76">
+      <c r="R88" s="68">
         <f>J88-N88-$H88</f>
         <v>2.06</v>
       </c>
-      <c r="S88" s="76">
+      <c r="S88" s="68">
         <f>K88-O88-$H88</f>
         <v>2.0659999999999998</v>
       </c>
-      <c r="T88" s="76">
+      <c r="T88" s="68">
         <f>L88-P88-$I88</f>
         <v>0.27</v>
       </c>
-      <c r="U88" s="78">
+      <c r="U88" s="70">
         <f>M88-Q88-$I88</f>
         <v>0.26699999999999996</v>
       </c>
-      <c r="V88" s="76">
+      <c r="V88" s="68">
         <v>0.873</v>
       </c>
-      <c r="W88" s="76">
+      <c r="W88" s="68">
         <v>5.79E-3</v>
       </c>
-      <c r="X88" s="76">
+      <c r="X88" s="68">
         <v>5.3499999999999997E-3</v>
       </c>
-      <c r="Y88" s="76">
+      <c r="Y88" s="68">
         <v>0.06</v>
       </c>
-      <c r="Z88" s="79">
+      <c r="Z88" s="71">
         <f t="shared" si="36"/>
         <v>0.94413999999999998</v>
       </c>
-      <c r="AA88" s="76">
+      <c r="AA88" s="68">
         <v>1.11E-2</v>
       </c>
-      <c r="AB88" s="76">
+      <c r="AB88" s="68">
         <v>2.93E-2</v>
       </c>
-      <c r="AC88" s="76">
+      <c r="AC88" s="68">
         <v>1.81</v>
       </c>
-      <c r="AD88" s="76">
+      <c r="AD88" s="68">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
@@ -17238,191 +17237,191 @@
       <c r="U89" s="15"/>
       <c r="Z89" s="17"/>
     </row>
-    <row r="90" spans="2:30" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="76">
-        <v>0</v>
-      </c>
-      <c r="C90" s="77" t="s">
+    <row r="90" spans="2:30" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="68">
+        <v>0</v>
+      </c>
+      <c r="C90" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="D90" s="76">
+      <c r="D90" s="68">
         <v>10</v>
       </c>
-      <c r="E90" s="76">
+      <c r="E90" s="68">
         <v>3</v>
       </c>
-      <c r="F90" s="76">
+      <c r="F90" s="68">
         <v>-3</v>
       </c>
-      <c r="G90" s="78">
-        <v>0</v>
-      </c>
-      <c r="H90" s="76">
-        <v>0</v>
-      </c>
-      <c r="I90" s="76">
-        <v>0</v>
-      </c>
-      <c r="J90" s="76">
+      <c r="G90" s="70">
+        <v>0</v>
+      </c>
+      <c r="H90" s="68">
+        <v>0</v>
+      </c>
+      <c r="I90" s="68">
+        <v>0</v>
+      </c>
+      <c r="J90" s="68">
         <v>1.82</v>
       </c>
-      <c r="K90" s="76">
+      <c r="K90" s="68">
         <v>1.82</v>
       </c>
-      <c r="L90" s="76">
+      <c r="L90" s="68">
         <v>1.1299999999999999</v>
       </c>
-      <c r="M90" s="76">
+      <c r="M90" s="68">
         <v>1.1299999999999999</v>
       </c>
-      <c r="N90" s="76">
+      <c r="N90" s="68">
         <v>0.66500000000000004</v>
       </c>
-      <c r="O90" s="76">
+      <c r="O90" s="68">
         <v>0.66500000000000004</v>
       </c>
-      <c r="P90" s="76">
+      <c r="P90" s="68">
         <v>0.66100000000000003</v>
       </c>
-      <c r="Q90" s="76">
+      <c r="Q90" s="68">
         <v>0.66100000000000003</v>
       </c>
-      <c r="R90" s="76">
+      <c r="R90" s="68">
         <f t="shared" ref="R90:S97" si="39">J90-N90-$H90</f>
         <v>1.155</v>
       </c>
-      <c r="S90" s="76">
+      <c r="S90" s="68">
         <f t="shared" si="39"/>
         <v>1.155</v>
       </c>
-      <c r="T90" s="76">
+      <c r="T90" s="68">
         <f t="shared" ref="T90:U97" si="40">L90-P90-$I90</f>
         <v>0.46899999999999986</v>
       </c>
-      <c r="U90" s="78">
+      <c r="U90" s="70">
         <f t="shared" si="40"/>
         <v>0.46899999999999986</v>
       </c>
-      <c r="V90" s="76">
+      <c r="V90" s="68">
         <v>0.35599999999999998</v>
       </c>
-      <c r="W90" s="76">
+      <c r="W90" s="68">
         <v>0.35599999999999998</v>
       </c>
-      <c r="X90" s="76">
+      <c r="X90" s="68">
         <v>0.14199999999999999</v>
       </c>
-      <c r="Y90" s="76">
+      <c r="Y90" s="68">
         <v>0.14199999999999999</v>
       </c>
-      <c r="Z90" s="79">
+      <c r="Z90" s="71">
         <f t="shared" ref="Z90" si="41">SUM(V90:Y90)</f>
         <v>0.996</v>
       </c>
-      <c r="AA90" s="76">
+      <c r="AA90" s="68">
         <v>0.33100000000000002</v>
       </c>
-      <c r="AB90" s="76">
+      <c r="AB90" s="68">
         <v>0.33100000000000002</v>
       </c>
-      <c r="AC90" s="76">
+      <c r="AC90" s="68">
         <v>0.82299999999999995</v>
       </c>
-      <c r="AD90" s="76">
+      <c r="AD90" s="68">
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:30" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="76">
-        <v>1</v>
-      </c>
-      <c r="C91" s="77" t="s">
+    <row r="91" spans="2:30" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="68">
+        <v>1</v>
+      </c>
+      <c r="C91" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="D91" s="76">
+      <c r="D91" s="68">
         <v>10</v>
       </c>
-      <c r="E91" s="76">
+      <c r="E91" s="68">
         <v>3</v>
       </c>
-      <c r="F91" s="76">
+      <c r="F91" s="68">
         <v>-3</v>
       </c>
-      <c r="G91" s="78">
-        <v>0</v>
-      </c>
-      <c r="H91" s="76">
-        <v>0</v>
-      </c>
-      <c r="I91" s="76">
-        <v>0</v>
-      </c>
-      <c r="J91" s="76">
+      <c r="G91" s="70">
+        <v>0</v>
+      </c>
+      <c r="H91" s="68">
+        <v>0</v>
+      </c>
+      <c r="I91" s="68">
+        <v>0</v>
+      </c>
+      <c r="J91" s="68">
         <v>2.11</v>
       </c>
-      <c r="K91" s="76">
+      <c r="K91" s="68">
         <v>2.56</v>
       </c>
-      <c r="L91" s="76">
+      <c r="L91" s="68">
         <v>2.5299999999999998</v>
       </c>
-      <c r="M91" s="76">
+      <c r="M91" s="68">
         <v>1.66</v>
       </c>
-      <c r="N91" s="76">
-        <v>0</v>
-      </c>
-      <c r="O91" s="76">
+      <c r="N91" s="68">
+        <v>0</v>
+      </c>
+      <c r="O91" s="68">
         <v>0.44900000000000001</v>
       </c>
-      <c r="P91" s="76">
+      <c r="P91" s="68">
         <v>2.14</v>
       </c>
-      <c r="Q91" s="76">
+      <c r="Q91" s="68">
         <v>1.27</v>
       </c>
-      <c r="R91" s="76">
+      <c r="R91" s="68">
         <f t="shared" si="39"/>
         <v>2.11</v>
       </c>
-      <c r="S91" s="76">
+      <c r="S91" s="68">
         <f t="shared" si="39"/>
         <v>2.1110000000000002</v>
       </c>
-      <c r="T91" s="76">
+      <c r="T91" s="68">
         <f t="shared" si="40"/>
         <v>0.38999999999999968</v>
       </c>
-      <c r="U91" s="78">
+      <c r="U91" s="70">
         <f t="shared" si="40"/>
         <v>0.3899999999999999</v>
       </c>
-      <c r="V91" s="76">
+      <c r="V91" s="68">
         <v>0.66900000000000004</v>
       </c>
-      <c r="W91" s="76">
+      <c r="W91" s="68">
         <v>0.17399999999999999</v>
       </c>
-      <c r="X91" s="76">
+      <c r="X91" s="68">
         <v>9.6500000000000006E-3</v>
       </c>
-      <c r="Y91" s="76">
+      <c r="Y91" s="68">
         <v>0.13100000000000001</v>
       </c>
-      <c r="Z91" s="79">
+      <c r="Z91" s="71">
         <f>SUM(V91:Y91)</f>
         <v>0.98365000000000002</v>
       </c>
-      <c r="AA91" s="76">
+      <c r="AA91" s="68">
         <v>2.06E-2</v>
       </c>
-      <c r="AB91" s="76">
+      <c r="AB91" s="68">
         <v>0.24399999999999999</v>
       </c>
-      <c r="AC91" s="76">
+      <c r="AC91" s="68">
         <v>1.78</v>
       </c>
-      <c r="AD91" s="76">
+      <c r="AD91" s="68">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
@@ -17614,191 +17613,191 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:30" s="82" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B94" s="82">
-        <v>0</v>
-      </c>
-      <c r="C94" s="83" t="s">
+    <row r="94" spans="2:30" s="74" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B94" s="74">
+        <v>0</v>
+      </c>
+      <c r="C94" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="D94" s="82">
+      <c r="D94" s="74">
         <v>10</v>
       </c>
-      <c r="E94" s="82">
-        <v>1</v>
-      </c>
-      <c r="F94" s="82">
-        <v>0</v>
-      </c>
-      <c r="G94" s="84">
+      <c r="E94" s="74">
+        <v>1</v>
+      </c>
+      <c r="F94" s="74">
+        <v>0</v>
+      </c>
+      <c r="G94" s="76">
         <v>-3</v>
       </c>
-      <c r="H94" s="82">
-        <v>0</v>
-      </c>
-      <c r="I94" s="82">
-        <v>0</v>
-      </c>
-      <c r="J94" s="82">
+      <c r="H94" s="74">
+        <v>0</v>
+      </c>
+      <c r="I94" s="74">
+        <v>0</v>
+      </c>
+      <c r="J94" s="74">
         <v>5.47</v>
       </c>
-      <c r="K94" s="82">
+      <c r="K94" s="74">
         <v>3.39</v>
       </c>
-      <c r="L94" s="82">
+      <c r="L94" s="74">
         <v>5.47</v>
       </c>
-      <c r="M94" s="82">
+      <c r="M94" s="74">
         <v>3.39</v>
       </c>
-      <c r="N94" s="82">
+      <c r="N94" s="74">
         <v>3.48</v>
       </c>
-      <c r="O94" s="82">
+      <c r="O94" s="74">
         <v>1.4</v>
       </c>
-      <c r="P94" s="82">
+      <c r="P94" s="74">
         <v>3.48</v>
       </c>
-      <c r="Q94" s="82">
+      <c r="Q94" s="74">
         <v>1.4</v>
       </c>
-      <c r="R94" s="82">
+      <c r="R94" s="74">
         <f t="shared" si="39"/>
         <v>1.9899999999999998</v>
       </c>
-      <c r="S94" s="82">
+      <c r="S94" s="74">
         <f t="shared" si="39"/>
         <v>1.9900000000000002</v>
       </c>
-      <c r="T94" s="82">
+      <c r="T94" s="74">
         <f t="shared" si="40"/>
         <v>1.9899999999999998</v>
       </c>
-      <c r="U94" s="84">
+      <c r="U94" s="76">
         <f t="shared" si="40"/>
         <v>1.9900000000000002</v>
       </c>
-      <c r="V94" s="82">
+      <c r="V94" s="74">
         <v>0.35599999999999998</v>
       </c>
-      <c r="W94" s="82">
+      <c r="W94" s="74">
         <v>0.14199999999999999</v>
       </c>
-      <c r="X94" s="82">
+      <c r="X94" s="74">
         <v>0.35599999999999998</v>
       </c>
-      <c r="Y94" s="82">
+      <c r="Y94" s="74">
         <v>0.14199999999999999</v>
       </c>
-      <c r="Z94" s="85">
+      <c r="Z94" s="77">
         <f>SUM(V94:Y94)</f>
         <v>0.996</v>
       </c>
-      <c r="AA94" s="82">
+      <c r="AA94" s="74">
         <v>0.99199999999999999</v>
       </c>
-      <c r="AB94" s="82">
+      <c r="AB94" s="74">
         <v>0.99199999999999999</v>
       </c>
-      <c r="AC94" s="82">
+      <c r="AC94" s="74">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AD94" s="82">
+      <c r="AD94" s="74">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="95" spans="2:30" s="82" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B95" s="82">
-        <v>1</v>
-      </c>
-      <c r="C95" s="83" t="s">
+    <row r="95" spans="2:30" s="74" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B95" s="74">
+        <v>1</v>
+      </c>
+      <c r="C95" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="D95" s="82">
+      <c r="D95" s="74">
         <v>10</v>
       </c>
-      <c r="E95" s="82">
-        <v>1</v>
-      </c>
-      <c r="F95" s="82">
-        <v>0</v>
-      </c>
-      <c r="G95" s="84">
+      <c r="E95" s="74">
+        <v>1</v>
+      </c>
+      <c r="F95" s="74">
+        <v>0</v>
+      </c>
+      <c r="G95" s="76">
         <v>-3</v>
       </c>
-      <c r="H95" s="82">
-        <v>0</v>
-      </c>
-      <c r="I95" s="82">
-        <v>0</v>
-      </c>
-      <c r="J95" s="82">
+      <c r="H95" s="74">
+        <v>0</v>
+      </c>
+      <c r="I95" s="74">
+        <v>0</v>
+      </c>
+      <c r="J95" s="74">
         <v>5.41</v>
       </c>
-      <c r="K95" s="82">
+      <c r="K95" s="74">
         <v>6.61</v>
       </c>
-      <c r="L95" s="82">
+      <c r="L95" s="74">
         <v>6.42</v>
       </c>
-      <c r="M95" s="82">
+      <c r="M95" s="74">
         <v>3.78</v>
       </c>
-      <c r="N95" s="82">
-        <v>0</v>
-      </c>
-      <c r="O95" s="82">
+      <c r="N95" s="74">
+        <v>0</v>
+      </c>
+      <c r="O95" s="74">
         <v>1.2</v>
       </c>
-      <c r="P95" s="82">
+      <c r="P95" s="74">
         <v>4.82</v>
       </c>
-      <c r="Q95" s="82">
+      <c r="Q95" s="74">
         <v>2.1800000000000002</v>
       </c>
-      <c r="R95" s="82">
+      <c r="R95" s="74">
         <f t="shared" si="39"/>
         <v>5.41</v>
       </c>
-      <c r="S95" s="82">
+      <c r="S95" s="74">
         <f t="shared" si="39"/>
         <v>5.41</v>
       </c>
-      <c r="T95" s="82">
+      <c r="T95" s="74">
         <f t="shared" si="40"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="U95" s="84">
+      <c r="U95" s="76">
         <f t="shared" si="40"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="V95" s="82">
+      <c r="V95" s="74">
         <v>0.60899999999999999</v>
       </c>
-      <c r="W95" s="82">
+      <c r="W95" s="74">
         <v>9.1199999999999996E-3</v>
       </c>
-      <c r="X95" s="82">
+      <c r="X95" s="74">
         <v>0.221</v>
       </c>
-      <c r="Y95" s="82">
+      <c r="Y95" s="74">
         <v>0.155</v>
       </c>
-      <c r="Z95" s="85">
+      <c r="Z95" s="77">
         <f t="shared" ref="Z95" si="43">SUM(V95:Y95)</f>
         <v>0.99412</v>
       </c>
-      <c r="AA95" s="82">
+      <c r="AA95" s="74">
         <v>1.07</v>
       </c>
-      <c r="AB95" s="82">
+      <c r="AB95" s="74">
         <v>0.34699999999999998</v>
       </c>
-      <c r="AC95" s="82">
+      <c r="AC95" s="74">
         <v>3.34</v>
       </c>
-      <c r="AD95" s="82">
+      <c r="AD95" s="74">
         <v>0.60299999999999998</v>
       </c>
     </row>
@@ -18288,39 +18287,39 @@
   <sheetData>
     <row r="1" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
-      <c r="B1" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="70" t="s">
+      <c r="B1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="70" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
       <c r="V1" s="24"/>
-      <c r="W1" s="71" t="s">
+      <c r="W1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
     </row>
     <row r="2" spans="1:26" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
